--- a/biology/Médecine/Cartilage_aryténoïde/Cartilage_aryténoïde.xlsx
+++ b/biology/Médecine/Cartilage_aryténoïde/Cartilage_aryténoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cartilage_aryt%C3%A9no%C3%AFde</t>
+          <t>Cartilage_aryténoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cartilages aryténoïdes sont deux petits cartilages du larynx situés au dessus de l'arc du cartilage cricoïde avec lequel ils s'articulent.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cartilage_aryt%C3%A9no%C3%AFde</t>
+          <t>Cartilage_aryténoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cartilages aryténoïdes a une forme de pyramide triangulaire haute d'environ 1,5 cm, de base inférieure et de grand axe vertical. Leur partie supérieure sont minces et lamellaires et se terminent par les apex du cartilage artyténoïde.
 Leur base possède une facette articulaire qui repose sur les facettes articulaires aryténoïdiennes du cartilage cricoïde formant les deux articulations crico-aryténoïdiennes.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cartilage_aryt%C3%A9no%C3%AFde</t>
+          <t>Cartilage_aryténoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La localisation et le mouvement de ces deux cartilages sont fondamentaux pour le fonctionnement du larynx (respiration, déglutition et phonation). « Pendant l'inspiration, les aryténoïdes présentent d'abord un mouvement de glissement vers l'extérieur sur leur surface articulaire cricoïdienne puis, dans l'inspiration forcée, s'inclinent en arrière augmentant l'ouverture glottique. Ce mouvement entraîne un déplissement des cordes vocales d'autant plus grand que l'inspiration est plus profonde. L'ouverture est maximale dans le bâillement[1] ». Au moment de la déglutition, les petits chevalets aryténoïdes se serrent l'un contre l'autre, les cordes vocales se rapprochent, la glotte se serre et tout le larynx ainsi bouché remonte et vient se loger sous la base de la langue, ce qui ouvre l'œsophage et permet le passage du bol alimentaire. « Au cours de la phonation, les muscles aryténoïdiens assurent l'adduction des cartilages aryténoïdes et en même temps, les muscles crico-aryténoïdiens latéraux les rapprochent modérément. L'air forcé au niveau des plis vocaux en adduction produit le son. Une contraction plus forte des mêmes muscles ferme la fente glottique (manœuvre de Valsalva)[2] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La localisation et le mouvement de ces deux cartilages sont fondamentaux pour le fonctionnement du larynx (respiration, déglutition et phonation). « Pendant l'inspiration, les aryténoïdes présentent d'abord un mouvement de glissement vers l'extérieur sur leur surface articulaire cricoïdienne puis, dans l'inspiration forcée, s'inclinent en arrière augmentant l'ouverture glottique. Ce mouvement entraîne un déplissement des cordes vocales d'autant plus grand que l'inspiration est plus profonde. L'ouverture est maximale dans le bâillement ». Au moment de la déglutition, les petits chevalets aryténoïdes se serrent l'un contre l'autre, les cordes vocales se rapprochent, la glotte se serre et tout le larynx ainsi bouché remonte et vient se loger sous la base de la langue, ce qui ouvre l'œsophage et permet le passage du bol alimentaire. « Au cours de la phonation, les muscles aryténoïdiens assurent l'adduction des cartilages aryténoïdes et en même temps, les muscles crico-aryténoïdiens latéraux les rapprochent modérément. L'air forcé au niveau des plis vocaux en adduction produit le son. Une contraction plus forte des mêmes muscles ferme la fente glottique (manœuvre de Valsalva) ».
 </t>
         </is>
       </c>
